--- a/output/Ownership_rate_by_generation.xlsx
+++ b/output/Ownership_rate_by_generation.xlsx
@@ -405,7 +405,7 @@
         <v>2.1</v>
       </c>
       <c r="D2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F2">
         <v>2.9</v>
@@ -422,7 +422,7 @@
         <v>3.7</v>
       </c>
       <c r="D3">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>4.1</v>
@@ -439,7 +439,7 @@
         <v>5.5</v>
       </c>
       <c r="D4">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F4">
         <v>5.5</v>
@@ -456,7 +456,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="D5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F5">
         <v>7.8</v>
@@ -490,7 +490,7 @@
         <v>16.3</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F7">
         <v>13.4</v>
@@ -507,7 +507,7 @@
         <v>20.9</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F8">
         <v>16.9</v>
@@ -524,7 +524,7 @@
         <v>26.1</v>
       </c>
       <c r="D9">
-        <v>18.9</v>
+        <v>17.6</v>
       </c>
       <c r="F9">
         <v>20.5</v>
@@ -541,7 +541,7 @@
         <v>31.7</v>
       </c>
       <c r="D10">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="F10">
         <v>24.5</v>
@@ -557,6 +557,9 @@
       <c r="C11">
         <v>36.3</v>
       </c>
+      <c r="D11">
+        <v>27.2</v>
+      </c>
       <c r="F11">
         <v>28</v>
       </c>
@@ -586,7 +589,7 @@
         <v>43.3</v>
       </c>
       <c r="F13">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +603,7 @@
         <v>47.6</v>
       </c>
       <c r="F14">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="G14">
         <v>61.4</v>
@@ -617,7 +620,7 @@
         <v>49.9</v>
       </c>
       <c r="F15">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="G15">
         <v>64.7</v>
@@ -651,7 +654,7 @@
         <v>53.8</v>
       </c>
       <c r="F17">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="G17">
         <v>68.2</v>
@@ -668,7 +671,7 @@
         <v>54.6</v>
       </c>
       <c r="F18">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="G18">
         <v>70.8</v>
@@ -685,7 +688,7 @@
         <v>56.4</v>
       </c>
       <c r="F19">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="G19">
         <v>71.2</v>
@@ -702,7 +705,7 @@
         <v>57.4</v>
       </c>
       <c r="F20">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="G20">
         <v>72.2</v>
@@ -736,7 +739,7 @@
         <v>59.6</v>
       </c>
       <c r="F22">
-        <v>56.4</v>
+        <v>56.2</v>
       </c>
       <c r="G22">
         <v>73.59999999999999</v>
@@ -753,7 +756,7 @@
         <v>59.3</v>
       </c>
       <c r="F23">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="G23">
         <v>73.7</v>
@@ -770,7 +773,7 @@
         <v>60.7</v>
       </c>
       <c r="F24">
-        <v>58.8</v>
+        <v>58.4</v>
       </c>
       <c r="G24">
         <v>74.3</v>
@@ -787,7 +790,7 @@
         <v>61.2</v>
       </c>
       <c r="F25">
-        <v>61.4</v>
+        <v>60.6</v>
       </c>
       <c r="G25">
         <v>73.59999999999999</v>
@@ -804,7 +807,7 @@
         <v>61.8</v>
       </c>
       <c r="F26">
-        <v>61.1</v>
+        <v>60.2</v>
       </c>
       <c r="G26">
         <v>74.40000000000001</v>
@@ -820,6 +823,9 @@
       <c r="C27">
         <v>62.4</v>
       </c>
+      <c r="F27">
+        <v>62.4</v>
+      </c>
       <c r="G27">
         <v>75.59999999999999</v>
       </c>
@@ -846,7 +852,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="C29">
-        <v>63.1</v>
+        <v>63.2</v>
       </c>
       <c r="G29">
         <v>76.40000000000001</v>
@@ -860,7 +866,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="C30">
-        <v>63.8</v>
+        <v>63.7</v>
       </c>
       <c r="G30">
         <v>76.5</v>
@@ -874,7 +880,7 @@
         <v>71.5</v>
       </c>
       <c r="C31">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="G31">
         <v>76.2</v>
@@ -905,7 +911,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="C33">
-        <v>63.9</v>
+        <v>63.8</v>
       </c>
       <c r="E33">
         <v>76.5</v>
@@ -922,7 +928,7 @@
         <v>71.7</v>
       </c>
       <c r="C34">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E34">
         <v>78</v>
@@ -939,7 +945,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="C35">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E35">
         <v>78.59999999999999</v>
@@ -956,7 +962,7 @@
         <v>72.2</v>
       </c>
       <c r="C36">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E36">
         <v>78.59999999999999</v>
@@ -973,7 +979,7 @@
         <v>72.5</v>
       </c>
       <c r="C37">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E37">
         <v>79.2</v>
@@ -990,7 +996,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>67.7</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>79.5</v>
@@ -1007,7 +1013,7 @@
         <v>72.8</v>
       </c>
       <c r="C39">
-        <v>69.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>80.2</v>
@@ -1024,7 +1030,7 @@
         <v>73.7</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>69.2</v>
       </c>
       <c r="E40">
         <v>79</v>
@@ -1041,7 +1047,7 @@
         <v>73.59999999999999</v>
       </c>
       <c r="C41">
-        <v>69.5</v>
+        <v>69.2</v>
       </c>
       <c r="E41">
         <v>79.40000000000001</v>
@@ -1058,7 +1064,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="C42">
-        <v>72</v>
+        <v>70.3</v>
       </c>
       <c r="E42">
         <v>79.5</v>
@@ -1074,6 +1080,9 @@
       <c r="B43">
         <v>73.59999999999999</v>
       </c>
+      <c r="C43">
+        <v>70.09999999999999</v>
+      </c>
       <c r="E43">
         <v>79.2</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E44">
         <v>79.40000000000001</v>
@@ -1100,7 +1109,7 @@
         <v>62</v>
       </c>
       <c r="B45">
-        <v>74.2</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>78.40000000000001</v>
@@ -1128,7 +1137,7 @@
         <v>64</v>
       </c>
       <c r="B47">
-        <v>75.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E47">
         <v>78.5</v>
@@ -1156,7 +1165,7 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>75.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E49">
         <v>77.8</v>
@@ -1184,7 +1193,7 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>76.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E51">
         <v>77.2</v>
@@ -1198,7 +1207,7 @@
         <v>69</v>
       </c>
       <c r="B52">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E52">
         <v>76.8</v>
@@ -1212,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E53">
         <v>76.09999999999999</v>
@@ -1226,7 +1235,7 @@
         <v>71</v>
       </c>
       <c r="B54">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E54">
         <v>76.40000000000001</v>
@@ -1240,7 +1249,7 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E55">
         <v>75.40000000000001</v>
@@ -1254,7 +1263,7 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E56">
         <v>74.7</v>
@@ -1268,7 +1277,7 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <v>74.40000000000001</v>
@@ -1296,7 +1305,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>76.3</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E59">
         <v>72.90000000000001</v>
@@ -1310,7 +1319,7 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <v>74</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E60">
         <v>72.7</v>
@@ -1324,7 +1333,7 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <v>72.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E61">
         <v>71.7</v>
@@ -1337,6 +1346,9 @@
       <c r="A62">
         <v>79</v>
       </c>
+      <c r="B62">
+        <v>75.7</v>
+      </c>
       <c r="E62">
         <v>70.8</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>62.6</v>
       </c>
       <c r="G68">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="69">
